--- a/sputnik/personal/ee/157ee.xlsx
+++ b/sputnik/personal/ee/157ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -24,15 +24,9 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -40,6 +34,21 @@
   </si>
   <si>
     <t xml:space="preserve">кВт/ч к оплате </t>
+  </si>
+  <si>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
   </si>
 </sst>
 </file>
@@ -47,9 +56,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,13 +91,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -129,33 +131,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -471,439 +464,314 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>43141</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="G1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>43693</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>214</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="C2" s="10">
+        <v>734</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="8"/>
       <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
-        <v>200</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="C3" s="10">
+        <v>520</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="8"/>
       <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>43219</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>43752</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3">
-        <v>414</v>
-      </c>
-      <c r="D4" s="3">
-        <f>C4-C2</f>
-        <v>200</v>
-      </c>
-      <c r="E4" s="6">
-        <v>4.29</v>
-      </c>
-      <c r="F4" s="6">
-        <f t="shared" ref="F4:F9" si="0">D4*E4</f>
-        <v>858</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="3" t="s">
+      <c r="C4" s="10">
+        <v>844</v>
+      </c>
+      <c r="D4" s="10">
+        <f t="shared" ref="D4:D5" si="0">C4-C2</f>
+        <v>110</v>
+      </c>
+      <c r="E4" s="5">
+        <v>4.49</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" ref="F4:F9" si="1">D4*E4</f>
+        <v>493.90000000000003</v>
+      </c>
+      <c r="G4" s="7">
+        <f>SUM(F4,F5)</f>
+        <v>688.30000000000007</v>
+      </c>
+      <c r="H4" s="7">
+        <v>688.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
-        <v>300</v>
-      </c>
-      <c r="D5" s="3">
-        <f>C5-C3</f>
-        <v>100</v>
-      </c>
-      <c r="E5" s="6">
-        <v>2.17</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="C5" s="10">
+        <v>600</v>
+      </c>
+      <c r="D5" s="10">
         <f t="shared" si="0"/>
-        <v>217</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>43302</v>
-      </c>
-      <c r="B6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" si="1"/>
+        <v>194.4</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>43816</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="3">
-        <v>614</v>
+      <c r="C6" s="10">
+        <v>904</v>
       </c>
       <c r="D6" s="3">
-        <f>C6-C4</f>
-        <v>200</v>
-      </c>
-      <c r="E6" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="F6" s="6">
-        <f t="shared" si="0"/>
-        <v>900</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3" t="s">
+        <f t="shared" ref="D6:D11" si="2">C6-C4</f>
+        <v>60</v>
+      </c>
+      <c r="E6" s="5">
+        <v>4.49</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="1"/>
+        <v>269.40000000000003</v>
+      </c>
+      <c r="G6" s="7">
+        <f>SUM(F6,F7)</f>
+        <v>366.6</v>
+      </c>
+      <c r="H6" s="7">
+        <v>366.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="3">
-        <v>300</v>
+      <c r="C7" s="10">
+        <v>640</v>
       </c>
       <c r="D7" s="3">
-        <f>C7-C5</f>
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="E7" s="5">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="1"/>
+        <v>97.2</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>43900</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="6">
-        <v>2.35</v>
-      </c>
-      <c r="F7" s="6">
-        <f t="shared" si="0"/>
+      <c r="C8" s="10">
+        <v>964</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="E8" s="5">
+        <v>4.49</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="1"/>
+        <v>269.40000000000003</v>
+      </c>
+      <c r="G8" s="7">
+        <f>SUM(F8,F9)</f>
+        <v>342.30000000000007</v>
+      </c>
+      <c r="H8" s="7">
+        <v>342.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="10">
+        <v>670</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="1"/>
+        <v>72.900000000000006</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>43920</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
-        <v>43549</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="13">
-        <v>614</v>
-      </c>
-      <c r="D8" s="13">
-        <v>0</v>
-      </c>
-      <c r="E8" s="9">
-        <v>4.57</v>
-      </c>
-      <c r="F8" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13" t="s">
+      <c r="C10" s="10">
+        <v>1034</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="E10" s="5">
+        <v>4.49</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" ref="F10:F11" si="3">D10*E10</f>
+        <v>314.3</v>
+      </c>
+      <c r="G10" s="7">
+        <f>SUM(F10,F11)</f>
+        <v>387.20000000000005</v>
+      </c>
+      <c r="H10" s="7">
+        <v>387.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="13">
-        <v>400</v>
-      </c>
-      <c r="D9" s="13">
-        <f t="shared" ref="D9:D17" si="1">C9-C7</f>
-        <v>100</v>
-      </c>
-      <c r="E9" s="9">
-        <v>2.39</v>
-      </c>
-      <c r="F9" s="6">
-        <f t="shared" si="0"/>
-        <v>239</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
-        <v>43654</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="13">
-        <v>634</v>
-      </c>
-      <c r="D10" s="13">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="E10" s="9">
-        <v>4.49</v>
-      </c>
-      <c r="F10" s="6">
-        <f t="shared" ref="F10:F15" si="2">D10*E10</f>
-        <v>89.800000000000011</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="13">
-        <v>420</v>
-      </c>
-      <c r="D11" s="13">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="E11" s="9">
+      <c r="C11" s="10">
+        <v>700</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="E11" s="5">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F11" s="6">
-        <f t="shared" si="2"/>
-        <v>48.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
-        <v>43693</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="13">
-        <v>684</v>
-      </c>
-      <c r="D12" s="13">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="E12" s="9">
-        <v>4.49</v>
-      </c>
-      <c r="F12" s="6">
-        <f t="shared" si="2"/>
-        <v>224.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="13">
-        <v>460</v>
-      </c>
-      <c r="D13" s="13">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="E13" s="9">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F13" s="6">
-        <f t="shared" si="2"/>
-        <v>97.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
-        <v>43693</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="13">
-        <v>734</v>
-      </c>
-      <c r="D14" s="13">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="E14" s="9">
-        <v>4.49</v>
-      </c>
-      <c r="F14" s="6">
-        <f t="shared" si="2"/>
-        <v>224.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="13">
-        <v>520</v>
-      </c>
-      <c r="D15" s="13">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="E15" s="9">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F15" s="6">
-        <f t="shared" si="2"/>
-        <v>145.80000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
-        <v>43752</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="13">
-        <v>844</v>
-      </c>
-      <c r="D16" s="13">
-        <f t="shared" si="1"/>
-        <v>110</v>
-      </c>
-      <c r="E16" s="9">
-        <v>4.49</v>
-      </c>
-      <c r="F16" s="6">
-        <f>D16*E16</f>
-        <v>493.90000000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="13">
-        <v>600</v>
-      </c>
-      <c r="D17" s="13">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="E17" s="9">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F17" s="6">
-        <f>D17*E17</f>
-        <v>194.4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
-        <v>43816</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="11">
-        <v>904</v>
-      </c>
-      <c r="D18" s="3">
-        <f>C18-C16</f>
-        <v>60</v>
-      </c>
-      <c r="E18" s="9">
-        <v>4.49</v>
-      </c>
-      <c r="F18" s="6">
-        <f>D18*E18</f>
-        <v>269.40000000000003</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="11">
-        <v>640</v>
-      </c>
-      <c r="D19" s="3">
-        <f>C19-C17</f>
-        <v>40</v>
-      </c>
-      <c r="E19" s="9">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F19" s="6">
-        <f>D19*E19</f>
-        <v>97.2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="F11" s="5">
+        <f t="shared" si="3"/>
+        <v>72.900000000000006</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="7">
+        <f>SUM(G2:G11)</f>
+        <v>1784.4000000000003</v>
+      </c>
+      <c r="H12" s="7">
+        <f>SUM(H4:H11)</f>
+        <v>1784.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/157ee.xlsx
+++ b/sputnik/personal/ee/157ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -464,10 +464,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -746,32 +746,83 @@
       <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="2" t="s">
-        <v>10</v>
+      <c r="A12" s="9">
+        <v>43973</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="10">
+        <v>1234</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" ref="D12:D13" si="4">C12-C10</f>
+        <v>200</v>
+      </c>
+      <c r="E12" s="5">
+        <v>4.49</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" ref="F12:F13" si="5">D12*E12</f>
+        <v>898</v>
       </c>
       <c r="G12" s="7">
-        <f>SUM(G2:G11)</f>
-        <v>1784.4000000000003</v>
+        <f>SUM(F12,F13)</f>
+        <v>1141</v>
       </c>
       <c r="H12" s="7">
-        <f>SUM(H4:H11)</f>
-        <v>1784.4</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="10">
+        <v>800</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="E13" s="5">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="5"/>
+        <v>243.00000000000003</v>
+      </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="7">
+        <f>SUM(G2:G13)</f>
+        <v>2925.4000000000005</v>
+      </c>
+      <c r="H14" s="7">
+        <f>SUM(H2:H13)</f>
+        <v>2925.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/157ee.xlsx
+++ b/sputnik/personal/ee/157ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -464,10 +464,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -797,32 +797,83 @@
       <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="2" t="s">
-        <v>10</v>
+      <c r="A14" s="9">
+        <v>43998</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="10">
+        <v>1284</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" ref="D14:D15" si="6">C14-C12</f>
+        <v>50</v>
+      </c>
+      <c r="E14" s="5">
+        <v>4.49</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" ref="F14:F15" si="7">D14*E14</f>
+        <v>224.5</v>
       </c>
       <c r="G14" s="7">
-        <f>SUM(G2:G13)</f>
-        <v>2925.4000000000005</v>
+        <f>SUM(F14,F15)</f>
+        <v>467.5</v>
       </c>
       <c r="H14" s="7">
-        <f>SUM(H2:H13)</f>
-        <v>2925.4</v>
+        <v>467.5</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="10">
+        <v>900</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="E15" s="5">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="7"/>
+        <v>243.00000000000003</v>
+      </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="7">
+        <f>SUM(G2:G15)</f>
+        <v>3392.9000000000005</v>
+      </c>
+      <c r="H16" s="7">
+        <f>SUM(H2:H15)</f>
+        <v>3392.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/157ee.xlsx
+++ b/sputnik/personal/ee/157ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -464,10 +464,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -848,32 +848,83 @@
       <c r="H15" s="7"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="2" t="s">
-        <v>10</v>
+      <c r="A16" s="9">
+        <v>44033</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="10">
+        <v>1309</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" ref="D16:D17" si="8">C16-C14</f>
+        <v>25</v>
+      </c>
+      <c r="E16" s="5">
+        <v>4.49</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" ref="F16:F17" si="9">D16*E16</f>
+        <v>112.25</v>
       </c>
       <c r="G16" s="7">
-        <f>SUM(G2:G15)</f>
-        <v>3392.9000000000005</v>
+        <f>SUM(F16,F17)</f>
+        <v>124.4</v>
       </c>
       <c r="H16" s="7">
-        <f>SUM(H2:H15)</f>
-        <v>3392.9</v>
+        <v>124.4</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="10">
+        <v>905</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="E17" s="5">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="9"/>
+        <v>12.15</v>
+      </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="7">
+        <f>SUM(G2:G17)</f>
+        <v>3517.3000000000006</v>
+      </c>
+      <c r="H18" s="7">
+        <f>SUM(H2:H17)</f>
+        <v>3517.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/157ee.xlsx
+++ b/sputnik/personal/ee/157ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -464,10 +464,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -899,32 +899,83 @@
       <c r="H17" s="7"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="2" t="s">
+      <c r="A18" s="9">
+        <v>44074</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="10">
+        <v>1374</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" ref="D18:D19" si="10">C18-C16</f>
+        <v>65</v>
+      </c>
+      <c r="E18" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" ref="F18:F19" si="11">D18*E18</f>
+        <v>306.14999999999998</v>
+      </c>
+      <c r="G18" s="7">
+        <f>SUM(F18,F19)</f>
+        <v>357.15</v>
+      </c>
+      <c r="H18" s="7">
+        <v>357.15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="10">
+        <v>925</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="E19" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="11"/>
+        <v>51</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G20" s="7">
         <f>SUM(G2:G17)</f>
         <v>3517.3000000000006</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H20" s="7">
         <f>SUM(H2:H17)</f>
         <v>3517.3</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/157ee.xlsx
+++ b/sputnik/personal/ee/157ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -464,7 +464,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
@@ -950,32 +950,83 @@
       <c r="H19" s="7"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="2" t="s">
-        <v>10</v>
+      <c r="A20" s="9">
+        <v>44096</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="10">
+        <v>1434</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" ref="D20:D21" si="12">C20-C18</f>
+        <v>60</v>
+      </c>
+      <c r="E20" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" ref="F20:F21" si="13">D20*E20</f>
+        <v>282.60000000000002</v>
       </c>
       <c r="G20" s="7">
-        <f>SUM(G2:G17)</f>
-        <v>3517.3000000000006</v>
+        <f>SUM(F20,F21)</f>
+        <v>384.6</v>
       </c>
       <c r="H20" s="7">
-        <f>SUM(H2:H17)</f>
-        <v>3517.3</v>
+        <v>385</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="10">
+        <v>965</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="12"/>
+        <v>40</v>
+      </c>
+      <c r="E21" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" si="13"/>
+        <v>102</v>
+      </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="7">
+        <f>SUM(G2:G21)</f>
+        <v>4259.0500000000011</v>
+      </c>
+      <c r="H22" s="7">
+        <f>SUM(H2:H21)</f>
+        <v>4259.4500000000007</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/157ee.xlsx
+++ b/sputnik/personal/ee/157ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -464,10 +464,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1001,32 +1001,83 @@
       <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="2" t="s">
-        <v>10</v>
+      <c r="A22" s="9">
+        <v>44124</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="10">
+        <v>1470</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" ref="D22:D23" si="14">C22-C20</f>
+        <v>36</v>
+      </c>
+      <c r="E22" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" ref="F22:F23" si="15">D22*E22</f>
+        <v>169.56</v>
       </c>
       <c r="G22" s="7">
-        <f>SUM(G2:G21)</f>
-        <v>4259.0500000000011</v>
+        <f>SUM(F22,F23)</f>
+        <v>284.31</v>
       </c>
       <c r="H22" s="7">
-        <f>SUM(H2:H21)</f>
-        <v>4259.4500000000007</v>
+        <v>270.99</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="10">
+        <v>1010</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="14"/>
+        <v>45</v>
+      </c>
+      <c r="E23" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" si="15"/>
+        <v>114.74999999999999</v>
+      </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="7">
+        <f>SUM(G2:G23)</f>
+        <v>4543.3600000000015</v>
+      </c>
+      <c r="H24" s="7">
+        <f>SUM(H2:H23)</f>
+        <v>4530.4400000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/157ee.xlsx
+++ b/sputnik/personal/ee/157ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -54,11 +54,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,14 +76,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -131,7 +123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -148,13 +140,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -217,7 +206,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -249,10 +238,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -284,7 +272,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -460,17 +447,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.85546875" style="1" customWidth="1"/>
@@ -485,7 +472,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -511,573 +498,216 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
-        <v>43693</v>
-      </c>
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="8">
+        <v>44074</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10">
-        <v>734</v>
-      </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="8"/>
+      <c r="C2" s="9">
+        <v>1374</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10">
-        <v>520</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="8"/>
+      <c r="C3" s="9">
+        <v>925</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>43752</v>
-      </c>
-      <c r="B4" s="10" t="s">
+    <row r="4" spans="1:8">
+      <c r="A4" s="8">
+        <v>44096</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="10">
-        <v>844</v>
-      </c>
-      <c r="D4" s="10">
+      <c r="C4" s="9">
+        <v>1434</v>
+      </c>
+      <c r="D4" s="3">
         <f t="shared" ref="D4:D5" si="0">C4-C2</f>
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="E4" s="5">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" ref="F4:F9" si="1">D4*E4</f>
-        <v>493.90000000000003</v>
+        <f t="shared" ref="F4:F5" si="1">D4*E4</f>
+        <v>282.60000000000002</v>
       </c>
       <c r="G4" s="7">
         <f>SUM(F4,F5)</f>
-        <v>688.30000000000007</v>
+        <v>384.6</v>
       </c>
       <c r="H4" s="7">
-        <v>688.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="10">
-        <v>600</v>
-      </c>
-      <c r="D5" s="10">
+      <c r="C5" s="9">
+        <v>965</v>
+      </c>
+      <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="E5" s="5">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" si="1"/>
-        <v>194.4</v>
+        <v>102</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>43816</v>
-      </c>
-      <c r="B6" s="10" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6" s="8">
+        <v>44124</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="10">
-        <v>904</v>
+      <c r="C6" s="9">
+        <v>1470</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" ref="D6:D11" si="2">C6-C4</f>
-        <v>60</v>
+        <f t="shared" ref="D6:D7" si="2">C6-C4</f>
+        <v>36</v>
       </c>
       <c r="E6" s="5">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F6" s="5">
-        <f t="shared" si="1"/>
-        <v>269.40000000000003</v>
+        <f t="shared" ref="F6:F7" si="3">D6*E6</f>
+        <v>169.56</v>
       </c>
       <c r="G6" s="7">
         <f>SUM(F6,F7)</f>
-        <v>366.6</v>
+        <v>284.31</v>
       </c>
       <c r="H6" s="7">
-        <v>366.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10" t="s">
+        <v>270.99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="10">
-        <v>640</v>
+      <c r="C7" s="9">
+        <v>1010</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E7" s="5">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="5">
-        <f t="shared" si="1"/>
-        <v>97.2</v>
+        <f t="shared" si="3"/>
+        <v>114.74999999999999</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
-        <v>43900</v>
-      </c>
-      <c r="B8" s="10" t="s">
+    <row r="8" spans="1:8">
+      <c r="A8" s="8">
+        <v>44182</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="10">
-        <v>964</v>
+      <c r="C8" s="9">
+        <v>1520</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="2"/>
-        <v>60</v>
+        <f t="shared" ref="D8:D9" si="4">C8-C6</f>
+        <v>50</v>
       </c>
       <c r="E8" s="5">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F8" s="5">
-        <f t="shared" si="1"/>
-        <v>269.40000000000003</v>
+        <f t="shared" ref="F8:F9" si="5">D8*E8</f>
+        <v>235.5</v>
       </c>
       <c r="G8" s="7">
         <f>SUM(F8,F9)</f>
-        <v>342.30000000000007</v>
+        <v>299.25</v>
       </c>
       <c r="H8" s="7">
-        <v>342.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10" t="s">
+        <v>299.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="10">
-        <v>670</v>
+      <c r="C9" s="9">
+        <v>1035</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="2"/>
-        <v>30</v>
+        <f t="shared" si="4"/>
+        <v>25</v>
       </c>
       <c r="E9" s="5">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="5">
-        <f t="shared" si="1"/>
-        <v>72.900000000000006</v>
+        <f t="shared" si="5"/>
+        <v>63.749999999999993</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
-        <v>43920</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="10">
-        <v>1034</v>
-      </c>
-      <c r="D10" s="3">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="E10" s="5">
-        <v>4.49</v>
-      </c>
-      <c r="F10" s="5">
-        <f t="shared" ref="F10:F11" si="3">D10*E10</f>
-        <v>314.3</v>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G10" s="7">
-        <f>SUM(F10,F11)</f>
-        <v>387.20000000000005</v>
+        <f>SUM(G2:G7)</f>
+        <v>668.91000000000008</v>
       </c>
       <c r="H10" s="7">
-        <v>387.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="10">
-        <v>700</v>
-      </c>
-      <c r="D11" s="3">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="E11" s="5">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F11" s="5">
-        <f t="shared" si="3"/>
-        <v>72.900000000000006</v>
-      </c>
+        <f>SUM(H2:H7)</f>
+        <v>655.99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
-        <v>43973</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="10">
-        <v>1234</v>
-      </c>
-      <c r="D12" s="3">
-        <f t="shared" ref="D12:D13" si="4">C12-C10</f>
-        <v>200</v>
-      </c>
-      <c r="E12" s="5">
-        <v>4.49</v>
-      </c>
-      <c r="F12" s="5">
-        <f t="shared" ref="F12:F13" si="5">D12*E12</f>
-        <v>898</v>
-      </c>
-      <c r="G12" s="7">
-        <f>SUM(F12,F13)</f>
-        <v>1141</v>
-      </c>
-      <c r="H12" s="7">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="10">
-        <v>800</v>
-      </c>
-      <c r="D13" s="3">
-        <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
-      <c r="E13" s="5">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F13" s="5">
-        <f t="shared" si="5"/>
-        <v>243.00000000000003</v>
-      </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
-        <v>43998</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="10">
-        <v>1284</v>
-      </c>
-      <c r="D14" s="3">
-        <f t="shared" ref="D14:D15" si="6">C14-C12</f>
-        <v>50</v>
-      </c>
-      <c r="E14" s="5">
-        <v>4.49</v>
-      </c>
-      <c r="F14" s="5">
-        <f t="shared" ref="F14:F15" si="7">D14*E14</f>
-        <v>224.5</v>
-      </c>
-      <c r="G14" s="7">
-        <f>SUM(F14,F15)</f>
-        <v>467.5</v>
-      </c>
-      <c r="H14" s="7">
-        <v>467.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="10">
-        <v>900</v>
-      </c>
-      <c r="D15" s="3">
-        <f t="shared" si="6"/>
-        <v>100</v>
-      </c>
-      <c r="E15" s="5">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F15" s="5">
-        <f t="shared" si="7"/>
-        <v>243.00000000000003</v>
-      </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
-        <v>44033</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="10">
-        <v>1309</v>
-      </c>
-      <c r="D16" s="3">
-        <f t="shared" ref="D16:D17" si="8">C16-C14</f>
-        <v>25</v>
-      </c>
-      <c r="E16" s="5">
-        <v>4.49</v>
-      </c>
-      <c r="F16" s="5">
-        <f t="shared" ref="F16:F17" si="9">D16*E16</f>
-        <v>112.25</v>
-      </c>
-      <c r="G16" s="7">
-        <f>SUM(F16,F17)</f>
-        <v>124.4</v>
-      </c>
-      <c r="H16" s="7">
-        <v>124.4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="10">
-        <v>905</v>
-      </c>
-      <c r="D17" s="3">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="E17" s="5">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F17" s="5">
-        <f t="shared" si="9"/>
-        <v>12.15</v>
-      </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
-        <v>44074</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="10">
-        <v>1374</v>
-      </c>
-      <c r="D18" s="3">
-        <f t="shared" ref="D18:D19" si="10">C18-C16</f>
-        <v>65</v>
-      </c>
-      <c r="E18" s="5">
-        <v>4.71</v>
-      </c>
-      <c r="F18" s="5">
-        <f t="shared" ref="F18:F19" si="11">D18*E18</f>
-        <v>306.14999999999998</v>
-      </c>
-      <c r="G18" s="7">
-        <f>SUM(F18,F19)</f>
-        <v>357.15</v>
-      </c>
-      <c r="H18" s="7">
-        <v>357.15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="10">
-        <v>925</v>
-      </c>
-      <c r="D19" s="3">
-        <f t="shared" si="10"/>
-        <v>20</v>
-      </c>
-      <c r="E19" s="5">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F19" s="5">
-        <f t="shared" si="11"/>
-        <v>51</v>
-      </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
-        <v>44096</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="10">
-        <v>1434</v>
-      </c>
-      <c r="D20" s="3">
-        <f t="shared" ref="D20:D21" si="12">C20-C18</f>
-        <v>60</v>
-      </c>
-      <c r="E20" s="5">
-        <v>4.71</v>
-      </c>
-      <c r="F20" s="5">
-        <f t="shared" ref="F20:F21" si="13">D20*E20</f>
-        <v>282.60000000000002</v>
-      </c>
-      <c r="G20" s="7">
-        <f>SUM(F20,F21)</f>
-        <v>384.6</v>
-      </c>
-      <c r="H20" s="7">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="10">
-        <v>965</v>
-      </c>
-      <c r="D21" s="3">
-        <f t="shared" si="12"/>
-        <v>40</v>
-      </c>
-      <c r="E21" s="5">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F21" s="5">
-        <f t="shared" si="13"/>
-        <v>102</v>
-      </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
-        <v>44124</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="10">
-        <v>1470</v>
-      </c>
-      <c r="D22" s="3">
-        <f t="shared" ref="D22:D23" si="14">C22-C20</f>
-        <v>36</v>
-      </c>
-      <c r="E22" s="5">
-        <v>4.71</v>
-      </c>
-      <c r="F22" s="5">
-        <f t="shared" ref="F22:F23" si="15">D22*E22</f>
-        <v>169.56</v>
-      </c>
-      <c r="G22" s="7">
-        <f>SUM(F22,F23)</f>
-        <v>284.31</v>
-      </c>
-      <c r="H22" s="7">
-        <v>270.99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="10">
-        <v>1010</v>
-      </c>
-      <c r="D23" s="3">
-        <f t="shared" si="14"/>
-        <v>45</v>
-      </c>
-      <c r="E23" s="5">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F23" s="5">
-        <f t="shared" si="15"/>
-        <v>114.74999999999999</v>
-      </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="7">
-        <f>SUM(G2:G23)</f>
-        <v>4543.3600000000015</v>
-      </c>
-      <c r="H24" s="7">
-        <f>SUM(H2:H23)</f>
-        <v>4530.4400000000005</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -1087,12 +717,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1101,12 +731,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/157ee.xlsx
+++ b/sputnik/personal/ee/157ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -54,11 +54,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,7 +206,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -238,9 +238,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -272,6 +273,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -447,17 +449,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D9" sqref="D8:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.85546875" style="1" customWidth="1"/>
@@ -472,7 +474,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="52.5" customHeight="1">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -498,7 +500,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>44074</v>
       </c>
@@ -514,7 +516,7 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="9" t="s">
         <v>1</v>
@@ -528,7 +530,7 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>44096</v>
       </c>
@@ -557,7 +559,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
         <v>1</v>
@@ -579,7 +581,7 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>44124</v>
       </c>
@@ -608,7 +610,7 @@
         <v>270.99</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
         <v>1</v>
@@ -630,7 +632,7 @@
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>44182</v>
       </c>
@@ -659,7 +661,7 @@
         <v>299.25</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="9" t="s">
         <v>1</v>
@@ -681,7 +683,7 @@
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -699,7 +701,7 @@
         <v>655.99</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -717,12 +719,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -731,12 +733,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/157ee.xlsx
+++ b/sputnik/personal/ee/157ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -453,10 +453,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D8:D9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -684,32 +684,83 @@
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="2" t="s">
+      <c r="A10" s="8">
+        <v>44272</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="9">
+        <v>1565</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" ref="D10:D11" si="6">C10-C8</f>
+        <v>45</v>
+      </c>
+      <c r="E10" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" ref="F10:F11" si="7">D10*E10</f>
+        <v>211.95</v>
+      </c>
+      <c r="G10" s="7">
+        <f>SUM(F10,F11)</f>
+        <v>237.45</v>
+      </c>
+      <c r="H10" s="7">
+        <v>237.45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="9">
+        <v>1045</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="G10" s="7">
+      <c r="E11" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="7"/>
+        <v>25.5</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="7">
         <f>SUM(G2:G7)</f>
         <v>668.91000000000008</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H12" s="7">
         <f>SUM(H2:H7)</f>
         <v>655.99</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/157ee.xlsx
+++ b/sputnik/personal/ee/157ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -453,10 +453,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -735,32 +735,83 @@
       <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="2" t="s">
+      <c r="A12" s="8">
+        <v>44334</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="9">
+        <v>1735</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" ref="D12:D13" si="8">C12-C10</f>
+        <v>170</v>
+      </c>
+      <c r="E12" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" ref="F12:F13" si="9">D12*E12</f>
+        <v>800.7</v>
+      </c>
+      <c r="G12" s="7">
+        <f>SUM(F12,F13)</f>
+        <v>915.45</v>
+      </c>
+      <c r="H12" s="7">
+        <v>915.45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="9">
+        <v>1090</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="8"/>
+        <v>45</v>
+      </c>
+      <c r="E13" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="9"/>
+        <v>114.74999999999999</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G14" s="7">
         <f>SUM(G2:G7)</f>
         <v>668.91000000000008</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H14" s="7">
         <f>SUM(H2:H7)</f>
         <v>655.99</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/157ee.xlsx
+++ b/sputnik/personal/ee/157ee.xlsx
@@ -453,10 +453,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -765,8 +765,8 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
-      <c r="B13" s="9" t="s">
-        <v>1</v>
+      <c r="B13" s="9">
+        <v>5</v>
       </c>
       <c r="C13" s="9">
         <v>1090</v>
@@ -786,32 +786,83 @@
       <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="2" t="s">
-        <v>10</v>
+      <c r="A14" s="8">
+        <v>44372</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="9">
+        <v>1820</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" ref="D14:D15" si="10">C14-C12</f>
+        <v>85</v>
+      </c>
+      <c r="E14" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" ref="F14:F15" si="11">D14*E14</f>
+        <v>400.35</v>
       </c>
       <c r="G14" s="7">
-        <f>SUM(G2:G7)</f>
-        <v>668.91000000000008</v>
+        <f>SUM(F14,F15)</f>
+        <v>400.35</v>
       </c>
       <c r="H14" s="7">
-        <f>SUM(H2:H7)</f>
-        <v>655.99</v>
+        <v>400.35</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="9">
+        <v>5</v>
+      </c>
+      <c r="C15" s="9">
+        <v>1090</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="7">
+        <f>SUM(G2:G15)</f>
+        <v>2521.4100000000003</v>
+      </c>
+      <c r="H16" s="7">
+        <f>SUM(H2:H15)</f>
+        <v>2508.4900000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/157ee.xlsx
+++ b/sputnik/personal/ee/157ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -453,7 +453,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
@@ -837,32 +837,83 @@
       <c r="H15" s="7"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="2" t="s">
+      <c r="A16" s="8">
+        <v>44404</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="9">
+        <v>1860</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" ref="D16:D17" si="12">C16-C14</f>
+        <v>40</v>
+      </c>
+      <c r="E16" s="5">
+        <v>4.96</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" ref="F16:F17" si="13">D16*E16</f>
+        <v>198.4</v>
+      </c>
+      <c r="G16" s="7">
+        <f>SUM(F16,F17)</f>
+        <v>198.4</v>
+      </c>
+      <c r="H16" s="7">
+        <v>198.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9">
+        <v>5</v>
+      </c>
+      <c r="C17" s="9">
+        <v>1090</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G18" s="7">
         <f>SUM(G2:G15)</f>
         <v>2521.4100000000003</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H18" s="7">
         <f>SUM(H2:H15)</f>
         <v>2508.4900000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/157ee.xlsx
+++ b/sputnik/personal/ee/157ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -453,10 +453,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -765,8 +765,8 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
-      <c r="B13" s="9">
-        <v>5</v>
+      <c r="B13" s="9" t="s">
+        <v>1</v>
       </c>
       <c r="C13" s="9">
         <v>1090</v>
@@ -816,8 +816,8 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
-      <c r="B15" s="9">
-        <v>5</v>
+      <c r="B15" s="9" t="s">
+        <v>1</v>
       </c>
       <c r="C15" s="9">
         <v>1090</v>
@@ -867,8 +867,8 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
-      <c r="B17" s="9">
-        <v>5</v>
+      <c r="B17" s="9" t="s">
+        <v>1</v>
       </c>
       <c r="C17" s="9">
         <v>1090</v>
@@ -878,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="5">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" si="13"/>
@@ -888,32 +888,130 @@
       <c r="H17" s="7"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="2" t="s">
+      <c r="A18" s="8">
+        <v>44415</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="9">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5">
+        <v>4.96</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" ref="F18:F19" si="14">D18*E18</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="7">
+        <f>SUM(F18,F19)</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="9">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5">
+        <v>2.68</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>44415</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="9">
+        <v>30</v>
+      </c>
+      <c r="D20" s="3">
+        <v>30</v>
+      </c>
+      <c r="E20" s="5">
+        <v>4.96</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" ref="F20:F21" si="15">D20*E20</f>
+        <v>148.80000000000001</v>
+      </c>
+      <c r="G20" s="7">
+        <f>SUM(F20,F21)</f>
+        <v>202.4</v>
+      </c>
+      <c r="H20" s="7">
+        <v>202.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="9">
+        <v>20</v>
+      </c>
+      <c r="D21" s="3">
+        <v>20</v>
+      </c>
+      <c r="E21" s="5">
+        <v>2.68</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" si="15"/>
+        <v>53.6</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G22" s="7">
         <f>SUM(G2:G15)</f>
         <v>2521.4100000000003</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H22" s="7">
         <f>SUM(H2:H15)</f>
         <v>2508.4900000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/157ee.xlsx
+++ b/sputnik/personal/ee/157ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -453,10 +453,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -986,32 +986,81 @@
       <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="2" t="s">
+      <c r="A22" s="8">
+        <v>44462</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="9">
+        <v>75</v>
+      </c>
+      <c r="D22" s="3">
+        <v>45</v>
+      </c>
+      <c r="E22" s="5">
+        <v>4.96</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" ref="F22:F23" si="16">D22*E22</f>
+        <v>223.2</v>
+      </c>
+      <c r="G22" s="7">
+        <f>SUM(F22,F23)</f>
+        <v>317</v>
+      </c>
+      <c r="H22" s="7">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="9">
+        <v>55</v>
+      </c>
+      <c r="D23" s="3">
+        <v>35</v>
+      </c>
+      <c r="E23" s="5">
+        <v>2.68</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" si="16"/>
+        <v>93.800000000000011</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G24" s="7">
         <f>SUM(G2:G15)</f>
         <v>2521.4100000000003</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H24" s="7">
         <f>SUM(H2:H15)</f>
         <v>2508.4900000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/157ee.xlsx
+++ b/sputnik/personal/ee/157ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -453,10 +453,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1035,32 +1035,83 @@
       <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="2" t="s">
+      <c r="A24" s="8">
+        <v>44494</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="9">
+        <v>150</v>
+      </c>
+      <c r="D24" s="3">
+        <f>SUM(C24,-C22)</f>
+        <v>75</v>
+      </c>
+      <c r="E24" s="5">
+        <v>4.96</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" ref="F24:F25" si="17">D24*E24</f>
+        <v>372</v>
+      </c>
+      <c r="G24" s="7">
+        <f>SUM(F24,F25)</f>
+        <v>492.6</v>
+      </c>
+      <c r="H24" s="7">
+        <v>492.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="9">
+        <v>100</v>
+      </c>
+      <c r="D25" s="3">
+        <f>SUM(C25,-C23)</f>
+        <v>45</v>
+      </c>
+      <c r="E25" s="5">
+        <v>2.68</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" si="17"/>
+        <v>120.60000000000001</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G26" s="7">
         <f>SUM(G2:G15)</f>
         <v>2521.4100000000003</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H26" s="7">
         <f>SUM(H2:H15)</f>
         <v>2508.4900000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/157ee.xlsx
+++ b/sputnik/personal/ee/157ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -453,10 +453,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1086,32 +1086,83 @@
       <c r="H25" s="7"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="2" t="s">
+      <c r="A26" s="8">
+        <v>44550</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="9">
+        <v>175</v>
+      </c>
+      <c r="D26" s="3">
+        <f>SUM(C26,-C24)</f>
+        <v>25</v>
+      </c>
+      <c r="E26" s="5">
+        <v>4.96</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" ref="F26:F27" si="18">D26*E26</f>
+        <v>124</v>
+      </c>
+      <c r="G26" s="7">
+        <f>SUM(F26,F27)</f>
+        <v>150.80000000000001</v>
+      </c>
+      <c r="H26" s="7">
+        <v>150.80000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="9">
+        <v>110</v>
+      </c>
+      <c r="D27" s="3">
+        <f>SUM(C27,-C25)</f>
         <v>10</v>
       </c>
-      <c r="G26" s="7">
+      <c r="E27" s="5">
+        <v>2.68</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" si="18"/>
+        <v>26.8</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="7">
         <f>SUM(G2:G15)</f>
         <v>2521.4100000000003</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H28" s="7">
         <f>SUM(H2:H15)</f>
         <v>2508.4900000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
